--- a/src/result/result.xlsx
+++ b/src/result/result.xlsx
@@ -456,15 +456,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>свита</t>
+          <t>избра</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1782955416805311</v>
+        <v>0.4079224185726328</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>свита пякяхинский, мегионский свита, сортымский свита, свита пякяхинский месторождение</t>
+          <t>применение избра, избра высокий, качество избра, глинистый избра</t>
         </is>
       </c>
     </row>
@@ -474,15 +474,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>сортымский</t>
+          <t>раствор</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1745653161582697</v>
+        <v>0.1862533439467974</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>сортымский свита, месторождение сортымский, месторождение сортымский свита, сортымский заполярный</t>
+          <t>буровой раствор, буровая раствор, море буровая раствор, раствор скважина</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>пякяхинский</t>
+          <t>буровой раствор</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.155169169918462</v>
+        <v>0.1482028280994492</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>пякяхинский месторождение, свита пякяхинский, свита пякяхинский месторождение, сортымский свита пякяхинский</t>
+          <t>известковый буровой раствор, поглощение буровой раствор, буровой раствор глина, потеря буровой раствор</t>
         </is>
       </c>
     </row>
@@ -510,15 +510,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>хальмерпаютинский</t>
+          <t>буровой</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.155169169918462</v>
+        <v>0.1470016351200374</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>хальмерпаютинский месторождение, северо хальмерпаютинский, северо хальмерпаютинский месторождение, свита северо хальмерпаютинский</t>
+          <t>буровой раствор, потеря буровой, поглощение буровой, известковый буровой раствор</t>
         </is>
       </c>
     </row>
@@ -528,15 +528,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>минерал</t>
+          <t>скважина</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1279838791885171</v>
+        <v>0.1306447436638753</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>минеральный, аутигенный минерал, минеральный ассоциация, глинистый минерал</t>
+          <t>стенка скважина, углубление скважина, раствор скважина, буровой раствор скважина</t>
         </is>
       </c>
     </row>
@@ -546,15 +546,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>пякяхинский месторождение</t>
+          <t>известковый</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1163768774388465</v>
+        <v>0.1072184084369759</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>свита пякяхинский месторождение</t>
+          <t>известковый система, известковый буровой раствор, известковый буровой, известковый биополимерный</t>
         </is>
       </c>
     </row>
@@ -564,15 +564,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>большехетский</t>
+          <t>бурение</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1163768774388465</v>
+        <v>0.09066275991783661</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>большехетский впадина, отложение большехетский впадина, отложение большехетский, преобразование отложение большехетский</t>
+          <t>условие бурение, бурение скважина, интервал бурение</t>
         </is>
       </c>
     </row>
@@ -582,15 +582,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>большехетский впадина</t>
+          <t>извести</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1163768774388465</v>
+        <v>0.07797702431780068</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>отложение большехетский впадина, большехетский впадина западный</t>
+          <t>свойство извести, крепить свойство извести</t>
         </is>
       </c>
     </row>
@@ -600,15 +600,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>цеолит</t>
+          <t>история</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.1113081536957472</v>
+        <v>0.07482392024128204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>цеолитовый, цеолит образовать, цеолит выполнить, цеолит кальцит</t>
+          <t>история развитие, история избра</t>
         </is>
       </c>
     </row>
@@ -618,15 +618,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>аутигенный</t>
+          <t>поглощение</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1021061392522725</v>
+        <v>0.07196483640168817</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>аутигенный минерал, формирование аутигенный, аутигенный каолинит</t>
+          <t>предотвращение поглощение, поглощение буровой, предотвращение поглощение буровой, поглощение буровой раствор</t>
         </is>
       </c>
     </row>
@@ -636,15 +636,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>месторождение</t>
+          <t>коллоидный</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.1009385330226171</v>
+        <v>0.05833739977958378</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>пякяхинский месторождение, хальмерпаютинский месторождение, салекаптский месторождение, месторождение сортымский</t>
+          <t>коллоидный фаза, коллоидный глина, органический коллоидный фаза, органический коллоидный</t>
         </is>
       </c>
     </row>
@@ -654,11 +654,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>отложение большехетский впадина</t>
+          <t>бск</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.09255568398272317</v>
+        <v>0.05577675573594324</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -668,15 +668,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>отложение большехетский</t>
+          <t>синергетический</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.09255568398272317</v>
+        <v>0.05248786706542592</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>отложение большехетский впадина, преобразование отложение большехетский, нижнемеловой отложение большехетский</t>
+          <t>основа синергетический, синергетический композиция реагент, синергетический композиция, основа синергетический композиция</t>
         </is>
       </c>
     </row>
@@ -686,15 +686,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>хальмерпаютинский месторождение</t>
+          <t>глинистый</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.09255568398272317</v>
+        <v>0.05234581128047665</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>северо хальмерпаютинский месторождение, свита хальмерпаютинский месторождение</t>
+          <t>глинистый избра</t>
         </is>
       </c>
     </row>
@@ -704,17 +704,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>тангаловский</t>
+          <t>известковый система</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.09255568398272317</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>тангаловский свита, покурский тангаловский, тангаловский сортымский</t>
-        </is>
-      </c>
+        <v>0.04943615119465659</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -722,17 +718,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>мегионский</t>
+          <t>ствол</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.08959936788600406</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>мегионский свита, сортымский мегионский свита, сортымский заполярный мегионский</t>
-        </is>
-      </c>
+        <v>0.04827103579309939</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -740,15 +732,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>покурский</t>
+          <t>буровая раствор</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08728265807913486</v>
+        <v>0.04783786045881566</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>покурский тангаловский, покурский свита, отложение покурский</t>
+          <t>море буровая раствор</t>
         </is>
       </c>
     </row>
@@ -758,17 +750,13 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>заполярный</t>
+          <t>пат сша</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.08280787704353039</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>сортымский заполярный, заполярный свита, сортымский заполярный мегионский, заполярный егионский</t>
-        </is>
-      </c>
+        <v>0.04661970497972946</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -776,13 +764,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>юдович кетрис</t>
+          <t>основа синергетический</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.08227171909575393</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.04661970497972946</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>основа синергетический композиция</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -790,17 +782,13 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>кетрис</t>
+          <t>васильченко</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.08227171909575393</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>юдович кетрис</t>
-        </is>
-      </c>
+        <v>0.04661970497972946</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -808,17 +796,13 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>салекаптский месторождение</t>
+          <t>кулагин</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.08227171909575393</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>свита салекаптский месторождение</t>
-        </is>
-      </c>
+        <v>0.04661970497972946</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -826,15 +810,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>полевой шпатовый</t>
+          <t>глина</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.08063943109740365</v>
+        <v>0.04614376448617411</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>преобразование полевой шпатовый, зерно полевой шпатовый</t>
+          <t>коллоидный глина, глина инеровать твёрдый, глина инеровать, буровой раствор глина</t>
         </is>
       </c>
     </row>
@@ -844,17 +828,13 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>шпатовый</t>
+          <t>стенка скважина</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.08063943109740365</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>полевой шпатовый, полевошпатовый, преобразование полевой шпатовый, зерно полевой шпатовый</t>
-        </is>
-      </c>
+        <v>0.04558085645195203</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -862,15 +842,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>биотит</t>
+          <t>крепить свойство</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.08063943109740365</v>
+        <v>0.0446214045887546</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>гидратация биотит</t>
+          <t>крепить свойство извести</t>
         </is>
       </c>
     </row>
@@ -880,15 +860,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>зерно</t>
+          <t>крепить</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.07992558764989324</v>
+        <v>0.04073419521801949</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>зерно полевой шпатовый, зерно полевой</t>
+          <t>крепить свойство, крепить свойство извести</t>
         </is>
       </c>
     </row>
@@ -898,17 +878,13 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>порода</t>
+          <t>пласт</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.07854827394750073</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>изменение порода, рассматривать порода, изменение порода коллектор, объём порода</t>
-        </is>
-      </c>
+        <v>0.04023585758475433</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -916,15 +892,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>салекаптский</t>
+          <t>коллоидный фаза</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.077584584959231</v>
+        <v>0.03980665798285261</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>салекаптский месторождение, свита салекаптский, свита салекаптский месторождение</t>
+          <t>органический коллоидный фаза</t>
         </is>
       </c>
     </row>
@@ -934,17 +910,13 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>япаскурт</t>
+          <t>известь</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.077584584959231</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>япаскурт горбачёв</t>
-        </is>
-      </c>
+        <v>0.03898851215890034</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -952,15 +924,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>юдович</t>
+          <t>карбон</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.077584584959231</v>
+        <v>0.03759461115637462</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>юдович кетрис</t>
+          <t>верхний карбон, среднее карбон</t>
         </is>
       </c>
     </row>
@@ -970,15 +942,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>отложение</t>
+          <t>проектный глубина</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.07745937301316055</v>
+        <v>0.03759461115637462</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>отложение большехетский впадина, отложение большехетский, нижнемеловой отложение, постседиментационный преобразование отложение</t>
+          <t>довести проектный глубина</t>
         </is>
       </c>
     </row>
